--- a/UAK_3/заказ/JLCSMT_UAK_3A_N5_CPL1.xlsx
+++ b/UAK_3/заказ/JLCSMT_UAK_3A_N5_CPL1.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="27320" windowHeight="15360"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="27320" windowHeight="13560"/>
   </bookViews>
   <sheets>
     <sheet name="UAK_3A_N5" sheetId="2" r:id="rId1"/>
@@ -590,7 +590,7 @@
   <dimension ref="A1:E47"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H9" sqref="H9"/>
+      <selection activeCell="I16" sqref="I16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -620,7 +620,7 @@
         <v>19</v>
       </c>
       <c r="B2" s="5">
-        <v>19.25</v>
+        <v>15.5</v>
       </c>
       <c r="C2" s="5">
         <v>70.75</v>
@@ -629,7 +629,7 @@
         <v>20</v>
       </c>
       <c r="E2" s="5">
-        <v>90</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.2">
@@ -663,7 +663,7 @@
         <v>20</v>
       </c>
       <c r="E4" s="5">
-        <v>0</v>
+        <v>180</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.2">
@@ -833,7 +833,7 @@
         <v>20</v>
       </c>
       <c r="E14" s="5">
-        <v>90</v>
+        <v>270</v>
       </c>
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.2">
@@ -850,7 +850,7 @@
         <v>20</v>
       </c>
       <c r="E15" s="5">
-        <v>0</v>
+        <v>270</v>
       </c>
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.2">
@@ -1292,7 +1292,7 @@
         <v>20</v>
       </c>
       <c r="E41" s="5">
-        <v>90</v>
+        <v>270</v>
       </c>
     </row>
     <row r="42" spans="1:5" x14ac:dyDescent="0.2">
@@ -1326,7 +1326,7 @@
         <v>20</v>
       </c>
       <c r="E43" s="5">
-        <v>270</v>
+        <v>90</v>
       </c>
     </row>
     <row r="44" spans="1:5" x14ac:dyDescent="0.2">
@@ -1343,7 +1343,7 @@
         <v>20</v>
       </c>
       <c r="E44" s="5">
-        <v>90</v>
+        <v>270</v>
       </c>
     </row>
     <row r="45" spans="1:5" x14ac:dyDescent="0.2">
@@ -1360,7 +1360,7 @@
         <v>20</v>
       </c>
       <c r="E45" s="5">
-        <v>90</v>
+        <v>270</v>
       </c>
     </row>
     <row r="46" spans="1:5" x14ac:dyDescent="0.2">
@@ -1377,7 +1377,7 @@
         <v>20</v>
       </c>
       <c r="E46" s="5">
-        <v>90</v>
+        <v>270</v>
       </c>
     </row>
     <row r="47" spans="1:5" x14ac:dyDescent="0.2">
@@ -1394,7 +1394,7 @@
         <v>20</v>
       </c>
       <c r="E47" s="5">
-        <v>90</v>
+        <v>270</v>
       </c>
     </row>
   </sheetData>
